--- a/neural-network/trigram-pattern-frequencies/trigram-pattern-frequencies-train.xlsx
+++ b/neural-network/trigram-pattern-frequencies/trigram-pattern-frequencies-train.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2a66692c83fa18ac/Desktop/relationships-between-organizational-patterns/neural-network/trigram-pattern-frequencies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2a66692c83fa18ac/Desktop/temp/relationships-between-organizational-patterns/neural-network/trigram-pattern-frequencies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09BC85F0-FB7D-47B9-80F7-16256E16A6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{09BC85F0-FB7D-47B9-80F7-16256E16A6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CC2FE94-B22C-4144-ABEF-7B41E539662D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{76E48FA9-AEB9-4D98-837F-B895D2B4392F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>OrganizationalPattern</t>
   </si>
@@ -112,22 +112,19 @@
     <t>FeatureAssignment</t>
   </si>
   <si>
-    <t>FewRoles</t>
-  </si>
-  <si>
-    <t>GenericsAndSpecifics</t>
-  </si>
-  <si>
-    <t>HierarchyOfFactories</t>
-  </si>
-  <si>
-    <t>LockEmUpTogether</t>
-  </si>
-  <si>
-    <t>LooseInterfaces</t>
-  </si>
-  <si>
-    <t>OrganizationFollowsMarket</t>
+    <t>Stand-UpMeeting</t>
+  </si>
+  <si>
+    <t>StandardsLinkingLocations</t>
+  </si>
+  <si>
+    <t>SubclassPerTeam</t>
+  </si>
+  <si>
+    <t>TeamPerTask</t>
+  </si>
+  <si>
+    <t>VariationBehindInterface</t>
   </si>
 </sst>
 </file>
@@ -519,7 +516,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A10" sqref="A10:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -910,7 +907,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3">
         <v>1.01</v>
@@ -951,7 +948,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3">
         <v>1.01</v>
@@ -992,7 +989,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3">
         <v>1.01</v>
@@ -1033,7 +1030,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="3">
         <v>1.01</v>
@@ -1074,7 +1071,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3">
         <v>1.01</v>
@@ -1115,7 +1112,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="3">
         <v>1.01</v>
@@ -1156,7 +1153,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="3">
         <v>1.01</v>
@@ -1197,7 +1194,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="3">
         <v>1.01</v>
@@ -1238,7 +1235,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="3">
         <v>1.01</v>
@@ -1279,7 +1276,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="3">
         <v>1.01</v>
